--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medication-ingredient-drugno.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medication-ingredient-drugno.xlsx
@@ -155,47 +155,47 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -690,7 +690,7 @@
         <v>45</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>40</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -712,19 +712,19 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>44</v>
@@ -781,13 +781,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -796,15 +796,15 @@
         <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -827,13 +827,13 @@
         <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -872,19 +872,19 @@
         <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>41</v>
@@ -896,7 +896,7 @@
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -915,10 +915,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -992,10 +992,10 @@
         <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
@@ -1023,7 +1023,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -1098,7 +1098,7 @@
         <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
